--- a/resultaten/Resultaten na goede Hillclimber/deliverables/wireLengthResults.xlsx
+++ b/resultaten/Resultaten na goede Hillclimber/deliverables/wireLengthResults.xlsx
@@ -1925,11 +1925,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="18791808"/>
-        <c:axId val="18793600"/>
+        <c:axId val="147323520"/>
+        <c:axId val="147329408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18791808"/>
+        <c:axId val="147323520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,12 +1939,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="18793600"/>
+        <c:crossAx val="147329408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="18793600"/>
+        <c:axId val="147329408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,14 +1955,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="18791808"/>
+        <c:crossAx val="147323520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2668,11 +2667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177320320"/>
-        <c:axId val="138746880"/>
+        <c:axId val="147353984"/>
+        <c:axId val="147355520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177320320"/>
+        <c:axId val="147353984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2683,12 +2682,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138746880"/>
+        <c:crossAx val="147355520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138746880"/>
+        <c:axId val="147355520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -2700,7 +2699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177320320"/>
+        <c:crossAx val="147353984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4933,11 +4932,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="170950656"/>
-        <c:axId val="158823936"/>
+        <c:axId val="147468672"/>
+        <c:axId val="147470208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="170950656"/>
+        <c:axId val="147468672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4947,12 +4946,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158823936"/>
+        <c:crossAx val="147470208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="158823936"/>
+        <c:axId val="147470208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4963,14 +4962,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170950656"/>
+        <c:crossAx val="147468672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5001,7 +4999,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12456786309558021"/>
+          <c:y val="2.8036665871311539E-2"/>
+          <c:w val="0.68578749736574895"/>
+          <c:h val="0.81526723932235745"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -5674,11 +5682,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="19102336"/>
-        <c:axId val="19108224"/>
+        <c:axId val="147486592"/>
+        <c:axId val="147488128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19102336"/>
+        <c:axId val="147486592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5689,12 +5697,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="19108224"/>
+        <c:crossAx val="147488128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19108224"/>
+        <c:axId val="147488128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5705,7 +5713,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="19102336"/>
+        <c:crossAx val="147486592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6418,11 +6426,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219923200"/>
-        <c:axId val="219924736"/>
+        <c:axId val="147505152"/>
+        <c:axId val="147506688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219923200"/>
+        <c:axId val="147505152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6433,12 +6441,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219924736"/>
+        <c:crossAx val="147506688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219924736"/>
+        <c:axId val="147506688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -6450,7 +6458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219923200"/>
+        <c:crossAx val="147505152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11676,8 +11684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
